--- a/data/tek_data/TEK_Teilenergiekennwerte.xlsx
+++ b/data/tek_data/TEK_Teilenergiekennwerte.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sehr hoch" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Hörsaal, Auditorium</t>
-  </si>
-  <si>
-    <t>Küche - Vorbereitung, Lager</t>
   </si>
   <si>
     <t>WC und Sanitärräume in Nichtwohngebäuden</t>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Einzelhandel / Kaufhaus (Lebensmittelabteilung mit Kühlprodukten)</t>
+  </si>
+  <si>
+    <t>Küche – Vorbereitung, Lager</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,37 +542,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>586.6</v>
@@ -1137,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>364.8</v>
@@ -1169,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>243.8</v>
@@ -1233,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>283.2</v>
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>222</v>
@@ -1717,7 +1717,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>740.4</v>
@@ -1854,7 +1854,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -2104,7 +2104,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,37 +2122,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2685,7 +2685,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>260.3</v>
@@ -2717,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>180.4</v>
@@ -2749,7 +2749,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>157.6</v>
@@ -2813,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>189.3</v>
@@ -2880,7 +2880,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2985,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -3195,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -3230,7 +3230,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -3265,7 +3265,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>71.7</v>
@@ -3297,7 +3297,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>223.1</v>
@@ -3434,7 +3434,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -3504,7 +3504,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -3574,7 +3574,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -3684,7 +3684,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,37 +3702,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3775,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3950,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -4230,7 +4230,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -4265,7 +4265,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>194.6</v>
@@ -4297,7 +4297,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>116.2</v>
@@ -4329,7 +4329,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>100.4</v>
@@ -4393,7 +4393,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>118.7</v>
@@ -4460,7 +4460,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -4495,7 +4495,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -4530,7 +4530,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -4635,7 +4635,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -4705,7 +4705,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -4740,7 +4740,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -4775,7 +4775,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>45.5</v>
@@ -4877,7 +4877,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>144.9</v>
@@ -5014,7 +5014,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -5119,7 +5119,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,37 +5283,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5356,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -5531,7 +5531,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -5776,7 +5776,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -5846,7 +5846,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>100.4</v>
@@ -5878,7 +5878,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>45.7</v>
@@ -5910,7 +5910,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>45.7</v>
@@ -5974,7 +5974,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>54.8</v>
@@ -6041,7 +6041,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -6076,7 +6076,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -6111,7 +6111,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -6251,7 +6251,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -6286,7 +6286,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -6321,7 +6321,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -6356,7 +6356,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -6391,7 +6391,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>23.1</v>
@@ -6458,7 +6458,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>64.3</v>
@@ -6595,7 +6595,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -6665,7 +6665,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -6700,7 +6700,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -6735,7 +6735,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -6844,8 +6844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,37 +6863,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6936,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -7111,7 +7111,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -7391,7 +7391,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -7426,7 +7426,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>44.4</v>
@@ -7458,7 +7458,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>16.8</v>
@@ -7490,7 +7490,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>25.5</v>
@@ -7554,7 +7554,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>31.3</v>
@@ -7621,7 +7621,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -7656,7 +7656,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -7691,7 +7691,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -7726,7 +7726,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -7761,7 +7761,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -7796,7 +7796,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -7866,7 +7866,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -7901,7 +7901,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -7936,7 +7936,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -7971,7 +7971,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -8006,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>10.3</v>
@@ -8038,7 +8038,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>26.7</v>
@@ -8175,7 +8175,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -8245,7 +8245,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -8280,7 +8280,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -8315,7 +8315,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -8385,7 +8385,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
